--- a/biology/Botanique/Salix_variegata/Salix_variegata.xlsx
+++ b/biology/Botanique/Salix_variegata/Salix_variegata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix variegata est une espèce de saule arbustif de la famille des Salicaceae, originaire de Chine.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Salix andropogon Lév. ;
 Salix bockii Seemen ;
@@ -544,12 +558,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Salix variegata est habituellement un arbuste de 1 m de haut. Ses rameaux sont rose pourpre, tomenteux quand ils sont jeunes, glabrescents ensuite. Le pétiole des feuilles est court. Le limbe est généralement oblong-oblancéolé ou obovale-oblong, variable, de 1,5 cm x 4 mm, abaxialement apprimé, soyeux à maturité, rarement subglabre, adaxialement pileux, cunéiforme de base atténué, rarement cunéiforme-arrondi. Les feuilles sont entières ou dentelées à la marge, avec l'apex aigu ou obtus. 
-La floraison est sérotineuse, rarement cotonneuse. Les chatons mâles mesurent 1,5-2,5 cm × 3-4 mm. Le pédoncule est court, avec 1 ou 2 stipules ; les bractées sont elliptiques-lancéolées, mesurent la moitié des filaments et sont abaxialement porteuses de villosités. La fleur mâle porte une glande qui est cylindrique, elle mesure jusqu'à 1 mm. Présence de 2 étamines avec filaments collés tout au long, glabres ; anthères jaunes. Le chaton femelle mesure 1,5-2,5 cm × 7-8 mm, 4 × 1-1,2 cm, il est pédonculé avec des bractées comme pour le chaton mâle. La fleur femelle porte une glande adaxiale. Son  ovaire ovoïde est densément duveteux, sessile ; le style est indistinct ou absent ; présence de 2 stigmates palatins. Les capsules sont étroitement ovées ; elles font 4 mm[2]. 
-La floraison a lieu en avril-mai pour une fructification en juillet-août[2].
-La plante pousse le long des ruisseaux, dans le sud-est du Gansu, Guizhou, Henan, ouest de l'Hubei, sud du Shaanxi, Sichuan, est du Xizang, nord du Yunnan[2].</t>
+La floraison est sérotineuse, rarement cotonneuse. Les chatons mâles mesurent 1,5-2,5 cm × 3-4 mm. Le pédoncule est court, avec 1 ou 2 stipules ; les bractées sont elliptiques-lancéolées, mesurent la moitié des filaments et sont abaxialement porteuses de villosités. La fleur mâle porte une glande qui est cylindrique, elle mesure jusqu'à 1 mm. Présence de 2 étamines avec filaments collés tout au long, glabres ; anthères jaunes. Le chaton femelle mesure 1,5-2,5 cm × 7-8 mm, 4 × 1-1,2 cm, il est pédonculé avec des bractées comme pour le chaton mâle. La fleur femelle porte une glande adaxiale. Son  ovaire ovoïde est densément duveteux, sessile ; le style est indistinct ou absent ; présence de 2 stigmates palatins. Les capsules sont étroitement ovées ; elles font 4 mm. 
+La floraison a lieu en avril-mai pour une fructification en juillet-août.
+La plante pousse le long des ruisseaux, dans le sud-est du Gansu, Guizhou, Henan, ouest de l'Hubei, sud du Shaanxi, Sichuan, est du Xizang, nord du Yunnan.</t>
         </is>
       </c>
     </row>
